--- a/feedback/feedback_final.xlsx
+++ b/feedback/feedback_final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="timkiem" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,19 @@
     <sheet name="dangtin2" sheetId="7" r:id="rId7"/>
     <sheet name="naptien" sheetId="8" r:id="rId8"/>
     <sheet name="lichsu" sheetId="9" r:id="rId9"/>
-    <sheet name="popup" sheetId="10" r:id="rId10"/>
+    <sheet name="taikhoan" sheetId="11" r:id="rId10"/>
+    <sheet name="popup" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>http://dungculambanhanphu.com/assets/nhadat/lienhe.html</t>
   </si>
   <si>
-    <t>làm cho e thêm 1 trang lichsu-chitiet luôn nha chị</t>
-  </si>
-  <si>
     <t>Khi click button đăng nhập nhiều lần thì thanh scroll ở trang chính(trang bị mờ) tự chạy</t>
   </si>
   <si>
@@ -80,6 +78,15 @@
   </si>
   <si>
     <t>1) Ở tất cả các popup gặp tình trạng này. Ví dụ ở popup đăng nhập</t>
+  </si>
+  <si>
+    <t>Đang ở label thì ẩn button cập nhật</t>
+  </si>
+  <si>
+    <t>1) làm cho e thêm 1 trang lichsu-chitiet luôn nha chị</t>
+  </si>
+  <si>
+    <t>2) Làm cho e thêm trang giới thiệu nữa</t>
   </si>
 </sst>
 </file>
@@ -204,6 +211,49 @@
         <a:xfrm>
           <a:off x="612321" y="5524500"/>
           <a:ext cx="12247619" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>303849</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="1152525"/>
+          <a:ext cx="7609524" cy="4647619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,15 +647,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>303849</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85144</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -622,8 +672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="1152525"/>
-          <a:ext cx="7609524" cy="4647619"/>
+          <a:off x="628650" y="466725"/>
+          <a:ext cx="8076190" cy="2638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,12 +982,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -948,9 +998,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -958,17 +1029,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -989,17 +1060,17 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1091,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1101,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1122,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1143,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1164,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1114,12 +1185,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1140,12 +1211,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1156,17 +1227,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/feedback/feedback_final.xlsx
+++ b/feedback/feedback_final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="timkiem" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="lichsu" sheetId="9" r:id="rId9"/>
     <sheet name="taikhoan" sheetId="11" r:id="rId10"/>
     <sheet name="popup" sheetId="10" r:id="rId11"/>
+    <sheet name="mobile_timkiem" sheetId="12" r:id="rId12"/>
+    <sheet name="mobile_trangchu" sheetId="13" r:id="rId13"/>
+    <sheet name="mobile_note" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>http://dungculambanhanphu.com/assets/nhadat/lienhe.html</t>
   </si>
@@ -87,6 +90,45 @@
   </si>
   <si>
     <t>2) Làm cho e thêm trang giới thiệu nữa</t>
+  </si>
+  <si>
+    <t>4) Chỉnh cho các button facebook , google linkedin, twitter có with bằng nhau</t>
+  </si>
+  <si>
+    <t>1 ) cho xuống bên dưới mũi tên</t>
+  </si>
+  <si>
+    <t>cho thêm button &lt; &gt;</t>
+  </si>
+  <si>
+    <t>1)còn thiếu  buton &lt; &gt; trên mobile trên web thì có</t>
+  </si>
+  <si>
+    <t>2) icon bị mất 1 miếng ở màn hình đăng ký, đăng nhập</t>
+  </si>
+  <si>
+    <t>3) màn hình đăng tin khoảng cách heigth giữa item này mới item kia không đều nhau</t>
+  </si>
+  <si>
+    <t>ví dụ: phường xã thì heigth to hơn Đường/Phố</t>
+  </si>
+  <si>
+    <t>4) Ở màn hình đang tin 2</t>
+  </si>
+  <si>
+    <t>Tổng giá cho nằm ở vị trí giống như ở gói VIP</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>Bị lồi ra ngoài 1 miếng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) cho hiển thị phần bên dưới ở trang quanlytin và lichsugiaodich đồng nhất về kích thước </t>
+  </si>
+  <si>
+    <t>Hiện tại 2 trang này đang khác nhau 1 bên thì full màn hình, một bên thì không full</t>
   </si>
 </sst>
 </file>
@@ -265,6 +307,325 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380724</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="457200"/>
+          <a:ext cx="2209524" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>475965</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="523875"/>
+          <a:ext cx="2276190" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380724</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1333500"/>
+          <a:ext cx="2209524" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428340</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="6257925"/>
+          <a:ext cx="2276190" cy="3961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342627</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="11372850"/>
+          <a:ext cx="2180952" cy="3933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371200</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>113807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="16173450"/>
+          <a:ext cx="2200000" cy="3942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409295</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>85571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20955000"/>
+          <a:ext cx="2238095" cy="1228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504533</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>161571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="20955000"/>
+          <a:ext cx="2333333" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -373,6 +734,44 @@
         <a:xfrm>
           <a:off x="609600" y="8458200"/>
           <a:ext cx="6552381" cy="5752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199319</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="14992350"/>
+          <a:ext cx="5647619" cy="2028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,12 +1447,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B44"/>
+  <dimension ref="B1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,6 +1576,11 @@
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/feedback/feedback_final.xlsx
+++ b/feedback/feedback_final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="timkiem" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>http://dungculambanhanphu.com/assets/nhadat/lienhe.html</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Khi click button đăng nhập nhiều lần thì thanh scroll ở trang chính(trang bị mờ) tự chạy</t>
   </si>
@@ -53,21 +50,12 @@
     <t>2) chuyển tới vị trí mũi tên</t>
   </si>
   <si>
-    <t>2 )Cho hiển thị css giống như LIÊN HÊ VỚI CHÚNG TÔI</t>
-  </si>
-  <si>
-    <t>1) đang bị nhảy khi kéo xuống dưới cùng</t>
-  </si>
-  <si>
     <t>1) button &lt; &gt; không tiến và lùi được</t>
   </si>
   <si>
     <t>1) Chỉnh lại cho các tab hiển thị đẹp lên, hiện tại chưa được nổi bật</t>
   </si>
   <si>
-    <t>1) đang bị nhảy dòng</t>
-  </si>
-  <si>
     <t>1) Hãy chuyển lại thẳng hàng với button mua tin</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>Đang ở label thì ẩn button cập nhật</t>
   </si>
   <si>
-    <t>1) làm cho e thêm 1 trang lichsu-chitiet luôn nha chị</t>
-  </si>
-  <si>
     <t>2) Làm cho e thêm trang giới thiệu nữa</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>cho thêm button &lt; &gt;</t>
   </si>
   <si>
-    <t>1)còn thiếu  buton &lt; &gt; trên mobile trên web thì có</t>
-  </si>
-  <si>
     <t>2) icon bị mất 1 miếng ở màn hình đăng ký, đăng nhập</t>
   </si>
   <si>
@@ -129,6 +111,21 @@
   </si>
   <si>
     <t>Hiện tại 2 trang này đang khác nhau 1 bên thì full màn hình, một bên thì không full</t>
+  </si>
+  <si>
+    <t>1 )Cho hiển thị css giống như LIÊN HÊ VỚI CHÚNG TÔI</t>
+  </si>
+  <si>
+    <t>1) chị chuyển cho nó nằm ở dưới cùng và chỉ 1 mình đó 1 hàng yk chị</t>
+  </si>
+  <si>
+    <t>7) khi e không nhập bấm dăng ký thì thấy bị lệch thế này</t>
+  </si>
+  <si>
+    <t>1)còn thiếu  buton &lt; &gt; trên mobile trên web thì có: có cách nào không vì người dùng đâu biết còn thông tin nữa để kéo qua bên phải xem chị?</t>
+  </si>
+  <si>
+    <t>1) làm cho e thêm 1 trang lichsu-chitiet luôn nha chị: yah, đủ rồi. Tại e muốn chuyển sang chi tiết mới delete chớ ko xóa ở trang hiện tại ó chị.</t>
   </si>
 </sst>
 </file>
@@ -623,6 +620,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24765000"/>
+          <a:ext cx="3657600" cy="6492240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -789,13 +830,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>55694</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1373,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1381,12 +1422,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1448,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -1428,17 +1469,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1459,7 +1500,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1521,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1491,60 +1532,65 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G109"/>
+  <dimension ref="B3:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
@@ -1565,22 +1611,22 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1591,27 +1637,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1668,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1689,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1667,14 +1703,14 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1695,12 +1731,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1721,12 +1757,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1739,20 +1775,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
